--- a/Planejamento operacional(2).xlsx
+++ b/Planejamento operacional(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\estudo_hub_fsa\estudo_linhas\GANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8515CB-CBBC-41E1-A387-865A21B084A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2B601-7C58-4C93-B4F7-6096F62A7D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{071F3873-2986-4941-B9C2-83BBBB5A242F}"/>
   </bookViews>
@@ -118,31 +118,31 @@
     <t>HUB</t>
   </si>
   <si>
-    <t>CARRO</t>
-  </si>
-  <si>
-    <t>CARRO 1</t>
-  </si>
-  <si>
-    <t>CARRO 2</t>
-  </si>
-  <si>
-    <t>CARRO 3</t>
-  </si>
-  <si>
-    <t>CARRO 4</t>
-  </si>
-  <si>
-    <t>CARRO 5</t>
-  </si>
-  <si>
-    <t>CARRO 6</t>
-  </si>
-  <si>
-    <t>CARRO 7</t>
-  </si>
-  <si>
     <t>STS</t>
+  </si>
+  <si>
+    <t>SAÍDA 1</t>
+  </si>
+  <si>
+    <t>SAÍDA 2</t>
+  </si>
+  <si>
+    <t>SAÍDA 3</t>
+  </si>
+  <si>
+    <t>SAÍDA 4</t>
+  </si>
+  <si>
+    <t>SAÍDA 5</t>
+  </si>
+  <si>
+    <t>SAÍDA 6</t>
+  </si>
+  <si>
+    <t>SAÍDA 7</t>
+  </si>
+  <si>
+    <t>SAIDA</t>
   </si>
 </sst>
 </file>
@@ -533,13 +533,13 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -556,7 +556,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H19" s="5">
         <v>45889.416666666664</v>

--- a/Planejamento operacional(2).xlsx
+++ b/Planejamento operacional(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\estudo_hub_fsa\estudo_linhas\GANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C2B601-7C58-4C93-B4F7-6096F62A7D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636FC56-2DBB-4C69-8D9B-BEF76A1F554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{071F3873-2986-4941-B9C2-83BBBB5A242F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$D$1:$M$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -121,28 +121,10 @@
     <t>STS</t>
   </si>
   <si>
-    <t>SAÍDA 1</t>
-  </si>
-  <si>
-    <t>SAÍDA 2</t>
-  </si>
-  <si>
-    <t>SAÍDA 3</t>
-  </si>
-  <si>
-    <t>SAÍDA 4</t>
-  </si>
-  <si>
-    <t>SAÍDA 5</t>
-  </si>
-  <si>
-    <t>SAÍDA 6</t>
-  </si>
-  <si>
-    <t>SAÍDA 7</t>
-  </si>
-  <si>
-    <t>SAIDA</t>
+    <t>VIAGEM</t>
+  </si>
+  <si>
+    <t>HORA VIAGEM</t>
   </si>
 </sst>
 </file>
@@ -207,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,6 +198,8 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,751 +514,890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA072E-1C6D-4741-B1CD-526C527CAAC9}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f>D2&amp;" - "&amp;G2&amp;" - "&amp;B2&amp;" - "&amp;TEXT(C2,"HH:MM")</f>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>45884.375</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H2,1),Planilha2!$A:$B,2,0)</f>
-        <v>SEX</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45885.291666666664</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J2,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45885.291666666664</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L2,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A20" si="0">D3&amp;" - "&amp;G3&amp;" - "&amp;B3&amp;" - "&amp;TEXT(C3,"HH:MM")</f>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3">
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
         <v>45885.291666666664</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f>K2</f>
+      <c r="K3" s="2" t="str">
+        <f>M2</f>
         <v>SÁB</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>45885.3125</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f>I3</f>
+      <c r="M3" s="2" t="str">
+        <f>K3</f>
         <v>SÁB</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>45885.3125</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H4,1),Planilha2!$A:$B,2,0)</f>
-        <v>SÁB</v>
-      </c>
-      <c r="J4" s="3">
-        <v>45886.458333333336</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J4,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+      <c r="L4" s="3">
+        <v>45886.458333333336</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L4,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>45886.458333333336</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H5,1),Planilha2!$A:$B,2,0)</f>
-        <v>DOM</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45886.75</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J5,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
+      <c r="L5" s="3">
+        <v>45886.75</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L5,1),Planilha2!$A:$B,2,0)</f>
+        <v>DOM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5">
+      <c r="J6" s="5">
         <v>45885.375</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H6,1),Planilha2!$A:$B,2,0)</f>
-        <v>SÁB</v>
-      </c>
-      <c r="J6" s="5">
-        <v>45886.291666666664</v>
       </c>
       <c r="K6" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J6,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45886.291666666664</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L6,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5">
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5">
         <v>45886.291666666664</v>
       </c>
-      <c r="I7" s="4" t="str">
-        <f>K6</f>
+      <c r="K7" s="4" t="str">
+        <f>M6</f>
         <v>DOM</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="5">
         <v>45886.3125</v>
       </c>
-      <c r="K7" s="4" t="str">
-        <f>I7</f>
+      <c r="M7" s="4" t="str">
+        <f>K7</f>
         <v>DOM</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="5">
+      <c r="J8" s="5">
         <v>45886.3125</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H8,1),Planilha2!$A:$B,2,0)</f>
-        <v>DOM</v>
-      </c>
-      <c r="J8" s="5">
-        <v>45887.458333333336</v>
       </c>
       <c r="K8" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J8,1),Planilha2!$A:$B,2,0)</f>
+        <v>DOM</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45887.458333333336</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L8,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="5">
+      <c r="J9" s="5">
         <v>45887.458333333336</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H9,1),Planilha2!$A:$B,2,0)</f>
-        <v>SEG</v>
-      </c>
-      <c r="J9" s="5">
-        <v>45887.75</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J9,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
+      <c r="L9" s="5">
+        <v>45887.75</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L9,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEG</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>45887.375</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H10,1),Planilha2!$A:$B,2,0)</f>
-        <v>SEG</v>
-      </c>
-      <c r="J10" s="3">
-        <v>45888.291666666664</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J10,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEG</v>
+      </c>
+      <c r="L10" s="3">
+        <v>45888.291666666664</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L10,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3">
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3">
         <v>45888.291666666664</v>
       </c>
-      <c r="I11" s="2" t="str">
-        <f>K10</f>
+      <c r="K11" s="2" t="str">
+        <f>M10</f>
         <v>TER</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3">
         <v>45888.3125</v>
       </c>
-      <c r="K11" s="2" t="str">
-        <f>I11</f>
+      <c r="M11" s="2" t="str">
+        <f>K11</f>
         <v>TER</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>45888.3125</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H12,1),Planilha2!$A:$B,2,0)</f>
-        <v>TER</v>
-      </c>
-      <c r="J12" s="3">
-        <v>45889.458333333336</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J12,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+      <c r="L12" s="3">
+        <v>45889.458333333336</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L12,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>45889.458333333336</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H13,1),Planilha2!$A:$B,2,0)</f>
-        <v>QUA</v>
-      </c>
-      <c r="J13" s="3">
-        <v>45889.75</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J13,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
+      <c r="L13" s="3">
+        <v>45889.75</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L13,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5">
+      <c r="J14" s="5">
         <v>45888.375</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H14,1),Planilha2!$A:$B,2,0)</f>
-        <v>TER</v>
-      </c>
-      <c r="J14" s="5">
-        <v>45889.291666666664</v>
       </c>
       <c r="K14" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J14,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45889.291666666664</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L14,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
         <v>45889.291666666664</v>
       </c>
-      <c r="I15" s="4" t="str">
-        <f>K14</f>
+      <c r="K15" s="4" t="str">
+        <f>M14</f>
         <v>QUA</v>
       </c>
-      <c r="J15" s="5">
+      <c r="L15" s="5">
         <v>45889.3125</v>
       </c>
-      <c r="K15" s="4" t="str">
-        <f>I15</f>
+      <c r="M15" s="4" t="str">
+        <f>K15</f>
         <v>QUA</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5">
+      <c r="J16" s="5">
         <v>45889.3125</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H16,1),Planilha2!$A:$B,2,0)</f>
-        <v>QUA</v>
-      </c>
-      <c r="J16" s="5">
-        <v>45890.458333333336</v>
       </c>
       <c r="K16" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J16,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45890.458333333336</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L16,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="5">
+      <c r="J17" s="5">
         <v>45890.458333333336</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H17,1),Planilha2!$A:$B,2,0)</f>
-        <v>QUI</v>
-      </c>
-      <c r="J17" s="5">
-        <v>45890.75</v>
       </c>
       <c r="K17" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J17,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
+      <c r="L17" s="5">
+        <v>45890.75</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L17,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUI</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - DOM - 09:00</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="7">
+      <c r="J18" s="7">
         <v>45886.375</v>
-      </c>
-      <c r="I18" s="6" t="str">
-        <f>VLOOKUP(WEEKDAY(H18,1),Planilha2!$A:$B,2,0)</f>
-        <v>DOM</v>
-      </c>
-      <c r="J18" s="7">
-        <v>45888.75</v>
       </c>
       <c r="K18" s="6" t="str">
         <f>VLOOKUP(WEEKDAY(J18,1),Planilha2!$A:$B,2,0)</f>
+        <v>DOM</v>
+      </c>
+      <c r="L18" s="7">
+        <v>45888.75</v>
+      </c>
+      <c r="M18" s="6" t="str">
+        <f>VLOOKUP(WEEKDAY(L18,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - QUA - 10:00</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5">
+      <c r="J19" s="5">
         <v>45889.416666666664</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <f>VLOOKUP(WEEKDAY(H19,1),Planilha2!$A:$B,2,0)</f>
-        <v>QUA</v>
-      </c>
-      <c r="J19" s="5">
-        <v>45891.791666666664</v>
       </c>
       <c r="K19" s="4" t="str">
         <f>VLOOKUP(WEEKDAY(J19,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45891.791666666664</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f>VLOOKUP(WEEKDAY(L19,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - QUI - 10:00</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>45890.416666666664</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f>VLOOKUP(WEEKDAY(H20,1),Planilha2!$A:$B,2,0)</f>
-        <v>QUI</v>
-      </c>
-      <c r="J20" s="3">
-        <v>45892.791666666664</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>VLOOKUP(WEEKDAY(J20,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUI</v>
+      </c>
+      <c r="L20" s="3">
+        <v>45892.791666666664</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f>VLOOKUP(WEEKDAY(L20,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K5" xr:uid="{74EA072E-1C6D-4741-B1CD-526C527CAAC9}"/>
+  <autoFilter ref="D1:M5" xr:uid="{74EA072E-1C6D-4741-B1CD-526C527CAAC9}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Planejamento operacional(2).xlsx
+++ b/Planejamento operacional(2).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\estudo_hub_fsa\estudo_linhas\GANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636FC56-2DBB-4C69-8D9B-BEF76A1F554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D55BCCD-0732-4EC6-833F-C9FB7C36D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{071F3873-2986-4941-B9C2-83BBBB5A242F}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" xr2:uid="{071F3873-2986-4941-B9C2-83BBBB5A242F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$D$1:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="35">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -125,13 +125,22 @@
   </si>
   <si>
     <t>HORA VIAGEM</t>
+  </si>
+  <si>
+    <t>FORTALEZA (CE) - SANTOS (SP)</t>
+  </si>
+  <si>
+    <t>VOLTA</t>
+  </si>
+  <si>
+    <t>"SOBE"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +152,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -200,6 +224,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,15 +542,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA072E-1C6D-4741-B1CD-526C527CAAC9}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -536,7 +567,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -566,18 +597,18 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="10" t="str">
         <f>D2&amp;" - "&amp;G2&amp;" - "&amp;B2&amp;" - "&amp;TEXT(C2,"HH:MM")</f>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
@@ -608,21 +639,21 @@
       <c r="J2" s="3">
         <v>45884.375</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J2,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
       <c r="L2" s="3">
         <v>45885.291666666664</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="M2" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L2,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A20" si="0">D3&amp;" - "&amp;G3&amp;" - "&amp;B3&amp;" - "&amp;TEXT(C3,"HH:MM")</f>
+      <c r="A3" s="10" t="str">
+        <f t="shared" ref="A3:A24" si="0">D3&amp;" - "&amp;G3&amp;" - "&amp;B3&amp;" - "&amp;TEXT(C3,"HH:MM")</f>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -648,20 +679,20 @@
       <c r="J3" s="3">
         <v>45885.291666666664</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="10" t="str">
         <f>M2</f>
         <v>SÁB</v>
       </c>
       <c r="L3" s="3">
         <v>45885.3125</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="M3" s="10" t="str">
         <f>K3</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
@@ -692,20 +723,20 @@
       <c r="J4" s="3">
         <v>45885.3125</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="K4" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J4,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L4" s="3">
         <v>45886.458333333336</v>
       </c>
-      <c r="M4" s="2" t="str">
+      <c r="M4" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L4,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
@@ -736,20 +767,20 @@
       <c r="J5" s="3">
         <v>45886.458333333336</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K5" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J5,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
       <c r="L5" s="3">
         <v>45886.75</v>
       </c>
-      <c r="M5" s="2" t="str">
+      <c r="M5" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L5,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="str">
+      <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
@@ -780,20 +811,20 @@
       <c r="J6" s="5">
         <v>45885.375</v>
       </c>
-      <c r="K6" s="4" t="str">
+      <c r="K6" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J6,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L6" s="5">
         <v>45886.291666666664</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L6,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="str">
+      <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
@@ -820,20 +851,20 @@
       <c r="J7" s="5">
         <v>45886.291666666664</v>
       </c>
-      <c r="K7" s="4" t="str">
+      <c r="K7" s="11" t="str">
         <f>M6</f>
         <v>DOM</v>
       </c>
       <c r="L7" s="5">
         <v>45886.3125</v>
       </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="11" t="str">
         <f>K7</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="str">
+      <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
@@ -864,20 +895,20 @@
       <c r="J8" s="5">
         <v>45886.3125</v>
       </c>
-      <c r="K8" s="4" t="str">
+      <c r="K8" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J8,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
       <c r="L8" s="5">
         <v>45887.458333333336</v>
       </c>
-      <c r="M8" s="4" t="str">
+      <c r="M8" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L8,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
@@ -908,20 +939,20 @@
       <c r="J9" s="5">
         <v>45887.458333333336</v>
       </c>
-      <c r="K9" s="4" t="str">
+      <c r="K9" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J9,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
       <c r="L9" s="5">
         <v>45887.75</v>
       </c>
-      <c r="M9" s="4" t="str">
+      <c r="M9" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L9,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
@@ -952,20 +983,20 @@
       <c r="J10" s="3">
         <v>45887.375</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="K10" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J10,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
       <c r="L10" s="3">
         <v>45888.291666666664</v>
       </c>
-      <c r="M10" s="2" t="str">
+      <c r="M10" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L10,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
@@ -992,20 +1023,20 @@
       <c r="J11" s="3">
         <v>45888.291666666664</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="K11" s="10" t="str">
         <f>M10</f>
         <v>TER</v>
       </c>
       <c r="L11" s="3">
         <v>45888.3125</v>
       </c>
-      <c r="M11" s="2" t="str">
+      <c r="M11" s="10" t="str">
         <f>K11</f>
         <v>TER</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
@@ -1036,20 +1067,20 @@
       <c r="J12" s="3">
         <v>45888.3125</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="K12" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J12,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L12" s="3">
         <v>45889.458333333336</v>
       </c>
-      <c r="M12" s="2" t="str">
+      <c r="M12" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L12,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
@@ -1080,20 +1111,20 @@
       <c r="J13" s="3">
         <v>45889.458333333336</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="K13" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J13,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L13" s="3">
         <v>45889.75</v>
       </c>
-      <c r="M13" s="2" t="str">
+      <c r="M13" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L13,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
@@ -1124,20 +1155,20 @@
       <c r="J14" s="5">
         <v>45888.375</v>
       </c>
-      <c r="K14" s="4" t="str">
+      <c r="K14" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J14,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L14" s="5">
         <v>45889.291666666664</v>
       </c>
-      <c r="M14" s="4" t="str">
+      <c r="M14" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L14,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
@@ -1164,20 +1195,20 @@
       <c r="J15" s="5">
         <v>45889.291666666664</v>
       </c>
-      <c r="K15" s="4" t="str">
+      <c r="K15" s="11" t="str">
         <f>M14</f>
         <v>QUA</v>
       </c>
       <c r="L15" s="5">
         <v>45889.3125</v>
       </c>
-      <c r="M15" s="4" t="str">
+      <c r="M15" s="11" t="str">
         <f>K15</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="str">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
@@ -1208,20 +1239,20 @@
       <c r="J16" s="5">
         <v>45889.3125</v>
       </c>
-      <c r="K16" s="4" t="str">
+      <c r="K16" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J16,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L16" s="5">
         <v>45890.458333333336</v>
       </c>
-      <c r="M16" s="4" t="str">
+      <c r="M16" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L16,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="str">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
@@ -1252,20 +1283,20 @@
       <c r="J17" s="5">
         <v>45890.458333333336</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="K17" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J17,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
       <c r="L17" s="5">
         <v>45890.75</v>
       </c>
-      <c r="M17" s="4" t="str">
+      <c r="M17" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L17,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="str">
+      <c r="A18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - DOM - 09:00</v>
       </c>
@@ -1296,22 +1327,22 @@
       <c r="J18" s="7">
         <v>45886.375</v>
       </c>
-      <c r="K18" s="6" t="str">
+      <c r="K18" s="12" t="str">
         <f>VLOOKUP(WEEKDAY(J18,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
       <c r="L18" s="7">
         <v>45888.75</v>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="M18" s="12" t="str">
         <f>VLOOKUP(WEEKDAY(L18,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="str">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - QUA - 10:00</v>
+        <v>FORTALEZA (CE) - SANTOS (SP) - "DESCE" - QUA - 10:00</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1320,7 +1351,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -1340,20 +1371,20 @@
       <c r="J19" s="5">
         <v>45889.416666666664</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="K19" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(J19,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L19" s="5">
         <v>45891.791666666664</v>
       </c>
-      <c r="M19" s="4" t="str">
+      <c r="M19" s="11" t="str">
         <f>VLOOKUP(WEEKDAY(L19,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - QUI - 10:00</v>
       </c>
@@ -1384,20 +1415,840 @@
       <c r="J20" s="3">
         <v>45890.416666666664</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="K20" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(J20,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
       <c r="L20" s="3">
         <v>45892.791666666664</v>
       </c>
-      <c r="M20" s="2" t="str">
+      <c r="M20" s="10" t="str">
         <f>VLOOKUP(WEEKDAY(L20,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUA - 09:00</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45889.375</v>
+      </c>
+      <c r="K21" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J21,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+      <c r="L21" s="5">
+        <v>45891.854166666664</v>
+      </c>
+      <c r="M21" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L21,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SANTOS (SP) - "SOBE" - SÁB - 12:00</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="3">
+        <v>45885.5</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J22,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+      <c r="L22" s="3">
+        <v>45888.111111111109</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L22,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - DOM - 09:00</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45886.375</v>
+      </c>
+      <c r="K23" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J23,1),Planilha2!$A:$B,2,0)</f>
+        <v>DOM</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45888.75</v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L23,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="3">
+        <v>45890.375</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J24,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUI</v>
+      </c>
+      <c r="L24" s="3">
+        <v>45890.666666666664</v>
+      </c>
+      <c r="M24" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L24,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUI</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="str">
+        <f t="shared" ref="A25:A39" si="1">D25&amp;" - "&amp;G25&amp;" - "&amp;B25&amp;" - "&amp;TEXT(C25,"HH:MM")</f>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
+        <v>45890.666666666664</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J25,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUI</v>
+      </c>
+      <c r="L25" s="3">
+        <v>45891.916666666664</v>
+      </c>
+      <c r="M25" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L25,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="3">
+        <v>45891.916666666664</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J26,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+      <c r="L26" s="3">
+        <v>45891.9375</v>
+      </c>
+      <c r="M26" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L26,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="3">
+        <v>45891.9375</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J27,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+      <c r="L27" s="3">
+        <v>45892.75</v>
+      </c>
+      <c r="M27" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L27,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45884.375</v>
+      </c>
+      <c r="K28" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J28,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45884.666666666664</v>
+      </c>
+      <c r="M28" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L28,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45884.666666666664</v>
+      </c>
+      <c r="K29" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J29,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEX</v>
+      </c>
+      <c r="L29" s="5">
+        <v>45885.916666666664</v>
+      </c>
+      <c r="M29" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L29,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5">
+        <v>45885.916666666664</v>
+      </c>
+      <c r="K30" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J30,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45885.9375</v>
+      </c>
+      <c r="M30" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L30,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45885.9375</v>
+      </c>
+      <c r="K31" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J31,1),Planilha2!$A:$B,2,0)</f>
+        <v>SÁB</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45886.75</v>
+      </c>
+      <c r="M31" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L31,1),Planilha2!$A:$B,2,0)</f>
+        <v>DOM</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="3">
+        <v>45887.375</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J32,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEG</v>
+      </c>
+      <c r="L32" s="3">
+        <v>45887.666666666664</v>
+      </c>
+      <c r="M32" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L32,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEG</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
+        <v>45887.666666666664</v>
+      </c>
+      <c r="K33" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J33,1),Planilha2!$A:$B,2,0)</f>
+        <v>SEG</v>
+      </c>
+      <c r="L33" s="3">
+        <v>45888.916666666664</v>
+      </c>
+      <c r="M33" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L33,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3">
+        <v>45888.916666666664</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J34,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+      <c r="L34" s="3">
+        <v>45888.9375</v>
+      </c>
+      <c r="M34" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L34,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="3">
+        <v>45888.9375</v>
+      </c>
+      <c r="K35" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(J35,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+      <c r="L35" s="3">
+        <v>45889.75</v>
+      </c>
+      <c r="M35" s="10" t="str">
+        <f>VLOOKUP(WEEKDAY(L35,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45888.375</v>
+      </c>
+      <c r="K36" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J36,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45888.666666666664</v>
+      </c>
+      <c r="M36" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L36,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45888.666666666664</v>
+      </c>
+      <c r="K37" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J37,1),Planilha2!$A:$B,2,0)</f>
+        <v>TER</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45889.916666666664</v>
+      </c>
+      <c r="M37" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L37,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5">
+        <v>45889.916666666664</v>
+      </c>
+      <c r="K38" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J38,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45889.9375</v>
+      </c>
+      <c r="M38" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L38,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45889.9375</v>
+      </c>
+      <c r="K39" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(J39,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUA</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45890.75</v>
+      </c>
+      <c r="M39" s="11" t="str">
+        <f>VLOOKUP(WEEKDAY(L39,1),Planilha2!$A:$B,2,0)</f>
+        <v>QUI</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:M5" xr:uid="{74EA072E-1C6D-4741-B1CD-526C527CAAC9}"/>
+  <autoFilter ref="A1:M39" xr:uid="{74EA072E-1C6D-4741-B1CD-526C527CAAC9}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Planejamento operacional(2).xlsx
+++ b/Planejamento operacional(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpurcinelli\Documents\estudo_hub_fsa\estudo_linhas\GANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D55BCCD-0732-4EC6-833F-C9FB7C36D25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D2AB4-9CE6-412C-A1FA-B5B83B0E403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" xr2:uid="{071F3873-2986-4941-B9C2-83BBBB5A242F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{071F3873-2986-4941-B9C2-83BBBB5A242F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -213,20 +213,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +542,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +564,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -597,25 +594,25 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="8" t="str">
         <f>D2&amp;" - "&amp;G2&amp;" - "&amp;B2&amp;" - "&amp;TEXT(C2,"HH:MM")</f>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>0.375</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -639,27 +636,27 @@
       <c r="J2" s="3">
         <v>45884.375</v>
       </c>
-      <c r="K2" s="10" t="str">
+      <c r="K2" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J2,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
       <c r="L2" s="3">
         <v>45885.291666666664</v>
       </c>
-      <c r="M2" s="10" t="str">
+      <c r="M2" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L2,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="8" t="str">
         <f t="shared" ref="A3:A24" si="0">D3&amp;" - "&amp;G3&amp;" - "&amp;B3&amp;" - "&amp;TEXT(C3,"HH:MM")</f>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>0.375</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -679,27 +676,27 @@
       <c r="J3" s="3">
         <v>45885.291666666664</v>
       </c>
-      <c r="K3" s="10" t="str">
+      <c r="K3" s="8" t="str">
         <f>M2</f>
         <v>SÁB</v>
       </c>
       <c r="L3" s="3">
         <v>45885.3125</v>
       </c>
-      <c r="M3" s="10" t="str">
+      <c r="M3" s="8" t="str">
         <f>K3</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.375</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -723,27 +720,27 @@
       <c r="J4" s="3">
         <v>45885.3125</v>
       </c>
-      <c r="K4" s="10" t="str">
+      <c r="K4" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J4,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L4" s="3">
         <v>45886.458333333336</v>
       </c>
-      <c r="M4" s="10" t="str">
+      <c r="M4" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L4,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEX - 09:00</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.375</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -767,27 +764,27 @@
       <c r="J5" s="3">
         <v>45886.458333333336</v>
       </c>
-      <c r="K5" s="10" t="str">
+      <c r="K5" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J5,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
       <c r="L5" s="3">
         <v>45886.75</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L5,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="str">
+      <c r="A6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>0.375</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -811,27 +808,27 @@
       <c r="J6" s="5">
         <v>45885.375</v>
       </c>
-      <c r="K6" s="11" t="str">
+      <c r="K6" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J6,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L6" s="5">
         <v>45886.291666666664</v>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L6,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>0.375</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -851,27 +848,27 @@
       <c r="J7" s="5">
         <v>45886.291666666664</v>
       </c>
-      <c r="K7" s="11" t="str">
+      <c r="K7" s="9" t="str">
         <f>M6</f>
         <v>DOM</v>
       </c>
       <c r="L7" s="5">
         <v>45886.3125</v>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="9" t="str">
         <f>K7</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>0.375</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -895,27 +892,27 @@
       <c r="J8" s="5">
         <v>45886.3125</v>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K8" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J8,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
       <c r="L8" s="5">
         <v>45887.458333333336</v>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L8,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SÁB - 09:00</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>0.375</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -939,27 +936,27 @@
       <c r="J9" s="5">
         <v>45887.458333333336</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J9,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
       <c r="L9" s="5">
         <v>45887.75</v>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L9,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0.375</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -983,27 +980,27 @@
       <c r="J10" s="3">
         <v>45887.375</v>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J10,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
       <c r="L10" s="3">
         <v>45888.291666666664</v>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L10,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>0.375</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1023,27 +1020,27 @@
       <c r="J11" s="3">
         <v>45888.291666666664</v>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="8" t="str">
         <f>M10</f>
         <v>TER</v>
       </c>
       <c r="L11" s="3">
         <v>45888.3125</v>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="8" t="str">
         <f>K11</f>
         <v>TER</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="str">
+      <c r="A12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.375</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1067,27 +1064,27 @@
       <c r="J12" s="3">
         <v>45888.3125</v>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J12,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L12" s="3">
         <v>45889.458333333336</v>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L12,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="str">
+      <c r="A13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - SEG - 09:00</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.375</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1111,27 +1108,27 @@
       <c r="J13" s="3">
         <v>45889.458333333336</v>
       </c>
-      <c r="K13" s="10" t="str">
+      <c r="K13" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J13,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L13" s="3">
         <v>45889.75</v>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L13,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="str">
+      <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>0.375</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1155,27 +1152,27 @@
       <c r="J14" s="5">
         <v>45888.375</v>
       </c>
-      <c r="K14" s="11" t="str">
+      <c r="K14" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J14,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L14" s="5">
         <v>45889.291666666664</v>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L14,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="str">
+      <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>0.375</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1195,27 +1192,27 @@
       <c r="J15" s="5">
         <v>45889.291666666664</v>
       </c>
-      <c r="K15" s="11" t="str">
+      <c r="K15" s="9" t="str">
         <f>M14</f>
         <v>QUA</v>
       </c>
       <c r="L15" s="5">
         <v>45889.3125</v>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="9" t="str">
         <f>K15</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="str">
+      <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>0.375</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1239,27 +1236,27 @@
       <c r="J16" s="5">
         <v>45889.3125</v>
       </c>
-      <c r="K16" s="11" t="str">
+      <c r="K16" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J16,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L16" s="5">
         <v>45890.458333333336</v>
       </c>
-      <c r="M16" s="11" t="str">
+      <c r="M16" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L16,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="str">
+      <c r="A17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - TER - 09:00</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>0.375</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1283,71 +1280,71 @@
       <c r="J17" s="5">
         <v>45890.458333333336</v>
       </c>
-      <c r="K17" s="11" t="str">
+      <c r="K17" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J17,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
       <c r="L17" s="5">
         <v>45890.75</v>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L17,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="str">
+      <c r="A18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - DOM - 09:00</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>45886.375</v>
       </c>
-      <c r="K18" s="12" t="str">
+      <c r="K18" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J18,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="3">
         <v>45888.75</v>
       </c>
-      <c r="M18" s="12" t="str">
+      <c r="M18" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L18,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="str">
+      <c r="A19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SANTOS (SP) - "DESCE" - QUA - 10:00</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1371,27 +1368,27 @@
       <c r="J19" s="5">
         <v>45889.416666666664</v>
       </c>
-      <c r="K19" s="11" t="str">
+      <c r="K19" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J19,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L19" s="5">
         <v>45891.791666666664</v>
       </c>
-      <c r="M19" s="11" t="str">
+      <c r="M19" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L19,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="str">
+      <c r="A20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "DESCE" - QUI - 10:00</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1415,27 +1412,27 @@
       <c r="J20" s="3">
         <v>45890.416666666664</v>
       </c>
-      <c r="K20" s="10" t="str">
+      <c r="K20" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J20,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
       <c r="L20" s="3">
         <v>45892.791666666664</v>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L20,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="str">
+      <c r="A21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUA - 09:00</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>0.375</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1459,71 +1456,71 @@
       <c r="J21" s="5">
         <v>45889.375</v>
       </c>
-      <c r="K21" s="11" t="str">
+      <c r="K21" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J21,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L21" s="5">
         <v>45891.854166666664</v>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="M21" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L21,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="str">
+      <c r="A22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SANTOS (SP) - "SOBE" - SÁB - 12:00</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>0.5</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="3">
         <v>45885.5</v>
       </c>
-      <c r="K22" s="10" t="str">
+      <c r="K22" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J22,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L22" s="3">
         <v>45888.111111111109</v>
       </c>
-      <c r="M22" s="10" t="str">
+      <c r="M22" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L22,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="str">
+      <c r="A23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - DOM - 09:00</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>0.375</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1547,199 +1544,199 @@
       <c r="J23" s="5">
         <v>45886.375</v>
       </c>
-      <c r="K23" s="11" t="str">
+      <c r="K23" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J23,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
       <c r="L23" s="5">
         <v>45888.75</v>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L23,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="str">
+      <c r="A24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="3">
         <v>45890.375</v>
       </c>
-      <c r="K24" s="10" t="str">
+      <c r="K24" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J24,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
       <c r="L24" s="3">
         <v>45890.666666666664</v>
       </c>
-      <c r="M24" s="10" t="str">
+      <c r="M24" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L24,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="str">
+      <c r="A25" s="8" t="str">
         <f t="shared" ref="A25:A39" si="1">D25&amp;" - "&amp;G25&amp;" - "&amp;B25&amp;" - "&amp;TEXT(C25,"HH:MM")</f>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="3">
         <v>45890.666666666664</v>
       </c>
-      <c r="K25" s="10" t="str">
+      <c r="K25" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J25,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
       <c r="L25" s="3">
         <v>45891.916666666664</v>
       </c>
-      <c r="M25" s="10" t="str">
+      <c r="M25" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L25,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="3">
         <v>45891.916666666664</v>
       </c>
-      <c r="K26" s="10" t="str">
+      <c r="K26" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J26,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
       <c r="L26" s="3">
         <v>45891.9375</v>
       </c>
-      <c r="M26" s="10" t="str">
+      <c r="M26" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L26,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="str">
+      <c r="A27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - QUI - 09:00</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="3">
         <v>45891.9375</v>
       </c>
-      <c r="K27" s="10" t="str">
+      <c r="K27" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J27,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
       <c r="L27" s="3">
         <v>45892.75</v>
       </c>
-      <c r="M27" s="10" t="str">
+      <c r="M27" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L27,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="str">
+      <c r="A28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>0.375</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1763,27 +1760,27 @@
       <c r="J28" s="5">
         <v>45884.375</v>
       </c>
-      <c r="K28" s="11" t="str">
+      <c r="K28" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J28,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
       <c r="L28" s="5">
         <v>45884.666666666664</v>
       </c>
-      <c r="M28" s="11" t="str">
+      <c r="M28" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L28,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="str">
+      <c r="A29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>0.375</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1807,27 +1804,27 @@
       <c r="J29" s="5">
         <v>45884.666666666664</v>
       </c>
-      <c r="K29" s="11" t="str">
+      <c r="K29" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J29,1),Planilha2!$A:$B,2,0)</f>
         <v>SEX</v>
       </c>
       <c r="L29" s="5">
         <v>45885.916666666664</v>
       </c>
-      <c r="M29" s="11" t="str">
+      <c r="M29" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L29,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="str">
+      <c r="A30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>0.375</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1847,27 +1844,27 @@
       <c r="J30" s="5">
         <v>45885.916666666664</v>
       </c>
-      <c r="K30" s="11" t="str">
+      <c r="K30" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J30,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L30" s="5">
         <v>45885.9375</v>
       </c>
-      <c r="M30" s="11" t="str">
+      <c r="M30" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L30,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="str">
+      <c r="A31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEX - 09:00</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>0.375</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1891,199 +1888,199 @@
       <c r="J31" s="5">
         <v>45885.9375</v>
       </c>
-      <c r="K31" s="11" t="str">
+      <c r="K31" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J31,1),Planilha2!$A:$B,2,0)</f>
         <v>SÁB</v>
       </c>
       <c r="L31" s="5">
         <v>45886.75</v>
       </c>
-      <c r="M31" s="11" t="str">
+      <c r="M31" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L31,1),Planilha2!$A:$B,2,0)</f>
         <v>DOM</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="str">
+      <c r="A32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="3">
         <v>45887.375</v>
       </c>
-      <c r="K32" s="10" t="str">
+      <c r="K32" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J32,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
       <c r="L32" s="3">
         <v>45887.666666666664</v>
       </c>
-      <c r="M32" s="10" t="str">
+      <c r="M32" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L32,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="str">
+      <c r="A33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="C33" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J33" s="3">
         <v>45887.666666666664</v>
       </c>
-      <c r="K33" s="10" t="str">
+      <c r="K33" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J33,1),Planilha2!$A:$B,2,0)</f>
         <v>SEG</v>
       </c>
       <c r="L33" s="3">
         <v>45888.916666666664</v>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="M33" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L33,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="str">
+      <c r="A34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="C34" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="3">
         <v>45888.916666666664</v>
       </c>
-      <c r="K34" s="10" t="str">
+      <c r="K34" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J34,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L34" s="3">
         <v>45888.9375</v>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="M34" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L34,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="str">
+      <c r="A35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - SEG - 09:00</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="C35" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="3">
         <v>45888.9375</v>
       </c>
-      <c r="K35" s="10" t="str">
+      <c r="K35" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(J35,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L35" s="3">
         <v>45889.75</v>
       </c>
-      <c r="M35" s="10" t="str">
+      <c r="M35" s="8" t="str">
         <f>VLOOKUP(WEEKDAY(L35,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="str">
+      <c r="A36" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>0.375</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2107,27 +2104,27 @@
       <c r="J36" s="5">
         <v>45888.375</v>
       </c>
-      <c r="K36" s="11" t="str">
+      <c r="K36" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J36,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L36" s="5">
         <v>45888.666666666664</v>
       </c>
-      <c r="M36" s="11" t="str">
+      <c r="M36" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L36,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="str">
+      <c r="A37" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>0.375</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2151,27 +2148,27 @@
       <c r="J37" s="5">
         <v>45888.666666666664</v>
       </c>
-      <c r="K37" s="11" t="str">
+      <c r="K37" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J37,1),Planilha2!$A:$B,2,0)</f>
         <v>TER</v>
       </c>
       <c r="L37" s="5">
         <v>45889.916666666664</v>
       </c>
-      <c r="M37" s="11" t="str">
+      <c r="M37" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L37,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="str">
+      <c r="A38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>0.375</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2191,27 +2188,27 @@
       <c r="J38" s="5">
         <v>45889.916666666664</v>
       </c>
-      <c r="K38" s="11" t="str">
+      <c r="K38" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J38,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L38" s="5">
         <v>45889.9375</v>
       </c>
-      <c r="M38" s="11" t="str">
+      <c r="M38" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L38,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="str">
+      <c r="A39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>FORTALEZA (CE) - SAO PAULO (SP) - "SOBE" - TER - 09:00</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>0.375</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2235,14 +2232,14 @@
       <c r="J39" s="5">
         <v>45889.9375</v>
       </c>
-      <c r="K39" s="11" t="str">
+      <c r="K39" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(J39,1),Planilha2!$A:$B,2,0)</f>
         <v>QUA</v>
       </c>
       <c r="L39" s="5">
         <v>45890.75</v>
       </c>
-      <c r="M39" s="11" t="str">
+      <c r="M39" s="9" t="str">
         <f>VLOOKUP(WEEKDAY(L39,1),Planilha2!$A:$B,2,0)</f>
         <v>QUI</v>
       </c>
